--- a/medicine/Enfance/Comme_des_géants_(maison_d'édition)/Comme_des_géants_(maison_d'édition).xlsx
+++ b/medicine/Enfance/Comme_des_géants_(maison_d'édition)/Comme_des_géants_(maison_d'édition).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+          <t>Comme_des_géants_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Comme des géants est une maison d'édition québécoise fondée en 2014 par Nadine Robert et Mathieu Lavoie[1]. Elle est connue pour ses albums jeunesse illustrés destinés aux 0 - 12 ans.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Comme des géants est une maison d'édition québécoise fondée en 2014 par Nadine Robert et Mathieu Lavoie. Elle est connue pour ses albums jeunesse illustrés destinés aux 0 - 12 ans.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+          <t>Comme_des_géants_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant leurs années de travail au sein de la maison d'édition La courte échelle, Nadine Robert et Mathieu Lavoie partagent le même intérêt pour les albums illustrés[2]. Expérimentés dans l’édition, ils quittent La courte échelle, qui connaît des difficultés financières pour fonder la maison d'édition Comme des géants[3].
-Le désir des cofondateurs est de publier des livres jeunesse de qualité, au graphisme soigné et de limiter les tirages[3]. L'album Le Vaillant petit gorille (2014), écrit par Nadine Robert et illustré par Gwendal Le Becest, est le premier titre publié[1]. En 2019, Comme des géants remporte le prix de Bologne en tant que meilleure maison d'édition jeunesse[4].
-Depuis la fondation de Comme des géants, Nadine Robert a décidé de fonder deux autres maisons d'édition. En janvier 2018, elle crée la maison d'édition Le lièvre de Mars, dans le but de rééditer des livres jeunesses parus il y a plus de 60 ans[5]. L'année 2021, elle fonde la maison d'édition «Milky Way Picture Books», qui propose certains titres traduits (en) provenant de la maison d'édition «Comme des géants», mais également des titres exclusifs anglophones [6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant leurs années de travail au sein de la maison d'édition La courte échelle, Nadine Robert et Mathieu Lavoie partagent le même intérêt pour les albums illustrés. Expérimentés dans l’édition, ils quittent La courte échelle, qui connaît des difficultés financières pour fonder la maison d'édition Comme des géants.
+Le désir des cofondateurs est de publier des livres jeunesse de qualité, au graphisme soigné et de limiter les tirages. L'album Le Vaillant petit gorille (2014), écrit par Nadine Robert et illustré par Gwendal Le Becest, est le premier titre publié. En 2019, Comme des géants remporte le prix de Bologne en tant que meilleure maison d'édition jeunesse.
+Depuis la fondation de Comme des géants, Nadine Robert a décidé de fonder deux autres maisons d'édition. En janvier 2018, elle crée la maison d'édition Le lièvre de Mars, dans le but de rééditer des livres jeunesses parus il y a plus de 60 ans. L'année 2021, elle fonde la maison d'édition «Milky Way Picture Books», qui propose certains titres traduits (en) provenant de la maison d'édition «Comme des géants», mais également des titres exclusifs anglophones .
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+          <t>Comme_des_géants_(maison_d'édition)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Quelques titres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Nadine Robert, Le vaillant Petit Gorille, Montréal, Comme des géants, 2014  (ISBN 978-2-9243-3200-9)
 Marianne Dubuc, L'autobus, Montréal, Comme des géants, 2014  (ISBN 978-2-9243-3201-6)
@@ -552,21 +568,172 @@
 Marianne Dubuc, Je ne suis pas ta maman, Montréal, Comme des géants, 2016  (ISBN 978-2-9243-3229-0)
 Marianne Dubuc, Le chemin de la montagne, Montréal, Comme des géants, 2017  (ISBN 978-2-9243-3240-5)
 Tom Gauld, Le petit robot de bois et la princesse-bûchette, Montréal, Comme des géants, 2021  (ISBN 978-2-9243-3291-7)
-Nadine Robert, Trèfle, Montréal, Comme des géants, 2022  (ISBN 978-2-9243-3275-7)
-Prix littéraires
-Prix TD de littérature pour l'enfance et la jeunesse
-2015: Marianne Dubuc, L'autobus[7]
-2018: Marianne Dubuc, Le chemin de la montagne [8]
-Prix littéraire du Gouverneur Général - Catégorie littérature jeunesse — livre illustré
-2018:Marianne Dubuc, Le chemin de la montagne[9]
-2022: Nadine Robert, Trèfle[10]
-Prix Harry Black de l'album jeunesse
-2017: Nadine Robert, Gérard Dubois, Au-delà de la forêt[11]
-2018: Marianne Dubuc, Le chemin de la montagne[11]
-Prix des libraires du Québec jeunesse, catégorie 0-5 ans
-2014: Marianne Dubuc, L'autobus[12]
-2023: Nadine Robert, Trèfle[13]
-2023: Tom Gauld, Le petit robot de bois et la princesse-bûchette[13]</t>
+Nadine Robert, Trèfle, Montréal, Comme des géants, 2022  (ISBN 978-2-9243-3275-7)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Comme_des_géants_(maison_d'édition)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Quelques titres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Prix TD de littérature pour l'enfance et la jeunesse</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2015: Marianne Dubuc, L'autobus
+2018: Marianne Dubuc, Le chemin de la montagne </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Comme_des_géants_(maison_d'édition)</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Quelques titres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Prix littéraire du Gouverneur Général - Catégorie littérature jeunesse — livre illustré</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2018:Marianne Dubuc, Le chemin de la montagne
+2022: Nadine Robert, Trèfle</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Comme_des_géants_(maison_d'édition)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Quelques titres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Prix Harry Black de l'album jeunesse</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2017: Nadine Robert, Gérard Dubois, Au-delà de la forêt
+2018: Marianne Dubuc, Le chemin de la montagne</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Comme_des_géants_(maison_d'édition)</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Comme_des_g%C3%A9ants_(maison_d%27%C3%A9dition)</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Quelques titres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Prix littéraires</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Prix des libraires du Québec jeunesse, catégorie 0-5 ans</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2014: Marianne Dubuc, L'autobus
+2023: Nadine Robert, Trèfle
+2023: Tom Gauld, Le petit robot de bois et la princesse-bûchette</t>
         </is>
       </c>
     </row>
